--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{E9A4FF24-0196-4AB1-9314-4ADA91CCBB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325B4C21-4823-4A1E-9773-DD8C7821F498}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88CD04-A44F-431B-8AE4-69EFE5FD3ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>Template Name: Subaward Reporting</t>
   </si>
@@ -349,64 +349,7 @@
 </t>
   </si>
   <si>
-    <t>Personnel_Cost_Estimates__c</t>
-  </si>
-  <si>
     <t>IAA Requirements Attestation</t>
-  </si>
-  <si>
-    <t>Personnel Cost Estimates?</t>
-  </si>
-  <si>
-    <t>Personnel_Estimated_Expended</t>
-  </si>
-  <si>
-    <t>Personnel_Expended_FTE_Count</t>
-  </si>
-  <si>
-    <t>Personnel_Expended_Justification</t>
-  </si>
-  <si>
-    <t>Estimated Personnel Expenditures</t>
-  </si>
-  <si>
-    <t>Personnel Expended FTE Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated personnel expenditures in 2025 and 2026.
-Required If Subaward Type is Direct Payment and Yes is selected for 2025 and 2026 Personnel Cost Estimates
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of full-time equivalent (FTE) positions for which funds are obligated. 
-Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explanation of how the estimated personnel expenditures in 2025 and 2026 was determined and provide brief description of job categories covered. 
-Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.
-</t>
-  </si>
-  <si>
-    <t>Contract_Estimated_Expended</t>
-  </si>
-  <si>
-    <t>Contract_Expended_Justification</t>
-  </si>
-  <si>
-    <t>Contract Estimated Expended</t>
-  </si>
-  <si>
-    <t>Contract Expended Justfiication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated funds required to cover change orders and contingencies provided for by the contract field.
-Required If Subaward Type is one of the following: 
-“Contract: Purchase Order”
-“Contract: Delivery Order”
-“Contract: Blanket Purchase Agreement”
-“Contract: Definitive Contract”
-</t>
   </si>
   <si>
     <t>The type of entity for this subaward or direct payment. Select one of the predefined menu items:
@@ -421,24 +364,7 @@
 </t>
   </si>
   <si>
-    <t>Personnel Expended Justification</t>
-  </si>
-  <si>
-    <t>Explanation of how the estimated funds required to cover change orders and contingencies provided for by the contract was determined.
-If Subaward Type is one of the following: 
-“Contract: Purchase Order”
-“Contract: Delivery Order”
-“Contract: Blanket Purchase Agreement”
-“Contract: Definitive Contract”
-AND
- an amount greater than 0 was added to the estimated Admin &amp; Legal expenses.</t>
-  </si>
-  <si>
     <t>Please provide a new explanation on why the subaward amount updated. Only required if updating an existing award amount on an existing subaward</t>
-  </si>
-  <si>
-    <t>Will this project include 2025 and 2026 personnel cost estimates?
-Only applicable If Subaward Type is "Direct Payment".</t>
   </si>
 </sst>
 </file>
@@ -830,7 +756,7 @@
   <dimension ref="A1:AF979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="AA1" sqref="AA1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1047,24 +973,12 @@
       <c r="Z4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1145,24 +1059,12 @@
       <c r="Z5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1241,26 +1143,14 @@
         <v>77</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1279,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>75</v>
@@ -1315,7 +1205,7 @@
         <v>49</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>50</v>
@@ -1330,7 +1220,7 @@
         <v>52</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>74</v>
@@ -1341,24 +1231,12 @@
       <c r="Z7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AA7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>

--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88CD04-A44F-431B-8AE4-69EFE5FD3ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0329216D-8A86-47B6-809E-AB7783F79C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>Template Name: Subaward Reporting</t>
   </si>
@@ -365,6 +365,54 @@
   </si>
   <si>
     <t>Please provide a new explanation on why the subaward amount updated. Only required if updating an existing award amount on an existing subaward</t>
+  </si>
+  <si>
+    <t>Personnel_Exp_Exceeding_Estimate__c</t>
+  </si>
+  <si>
+    <t>Personnel_Obligations_Pursuant_Estimate__c</t>
+  </si>
+  <si>
+    <t>Contract_Expenditures_Exceeding_Estimate__c</t>
+  </si>
+  <si>
+    <t>Contract_Obligations_Pursuant_Estimate__c</t>
+  </si>
+  <si>
+    <t>Personnel Expenditures Exceeding Estimate</t>
+  </si>
+  <si>
+    <t>Personnel Obligations Pursuant to Estimate</t>
+  </si>
+  <si>
+    <t>Contract Expenditures Exceeding Estimate</t>
+  </si>
+  <si>
+    <t>Contract Obligations Pursuant to Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Expenditures Exceeding Estimate
+Required If Subaward Type is Direct Payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Reported Obligations Pursuant to Estimate
+Required If Subaward Type is Direct Payment </t>
+  </si>
+  <si>
+    <t>Total Expenditures Exceeding Estimate
+Required If Subaward Type is one of the following: 
+“Contract: Purchase Order”
+“Contract: Delivery Order”
+“Contract: Blanket Purchase Agreement”
+“Contract: Definitive Contract”</t>
+  </si>
+  <si>
+    <t>Total Reported Obligations Pursuant to Estimate
+Required If Subaward Type is one of the following: 
+“Contract: Purchase Order”
+“Contract: Delivery Order”
+“Contract: Blanket Purchase Agreement”
+“Contract: Definitive Contract”</t>
   </si>
 </sst>
 </file>
@@ -756,7 +804,7 @@
   <dimension ref="A1:AF979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AF1048576"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -786,9 +834,9 @@
     <col min="25" max="25" width="37" style="3" customWidth="1"/>
     <col min="26" max="26" width="29.59765625" style="3" customWidth="1"/>
     <col min="27" max="27" width="35.3984375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="32.296875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="28.5" style="3" customWidth="1"/>
-    <col min="30" max="30" width="27.69921875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="41.59765625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="38.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="37.09765625" style="3" customWidth="1"/>
     <col min="31" max="32" width="29.69921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -973,10 +1021,18 @@
       <c r="Z4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
+      <c r="AA4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
     </row>
@@ -1059,10 +1115,18 @@
       <c r="Z5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
+      <c r="AA5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
     </row>
@@ -1145,10 +1209,18 @@
       <c r="Z6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
+      <c r="AA6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
     </row>
@@ -1231,10 +1303,18 @@
       <c r="Z7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
+      <c r="AA7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
     </row>
